--- a/results.xlsx
+++ b/results.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Nature Inspired Computing\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukami\OneDrive\Desktop\COMP701-Assignment-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2569C168-5B05-4DF7-9895-ABDED9911294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC57F77-5071-4759-BF80-9BD5489D1603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="2772" windowWidth="16128" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t>ga_200_default</t>
   </si>
@@ -48,11 +58,44 @@
   <si>
     <t>ga_100_100</t>
   </si>
+  <si>
+    <t>ga_40_100_proportional</t>
+  </si>
+  <si>
+    <t>ga_100_100_proportional</t>
+  </si>
+  <si>
+    <t>ga_40_100_top</t>
+  </si>
+  <si>
+    <t>ga_100_100_top</t>
+  </si>
+  <si>
+    <t>ga_40_100_roulette</t>
+  </si>
+  <si>
+    <t>ga_100_100_roulette</t>
+  </si>
+  <si>
+    <t>ga_40_100_tournament</t>
+  </si>
+  <si>
+    <t>ga_100_100_tournament</t>
+  </si>
+  <si>
+    <t>ga_40_100_1000_generations</t>
+  </si>
+  <si>
+    <t>ga_100_100_1000_generations</t>
+  </si>
+  <si>
+    <t>ga_200_100_rank_stochastic_1000_generations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,16 +929,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -935,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -943,7 +989,8 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>30.883299999999998</v>
+        <f>30.8833*1000</f>
+        <v>30883.3</v>
       </c>
       <c r="D3">
         <v>500</v>
@@ -955,7 +1002,8 @@
         <v>40</v>
       </c>
       <c r="H3">
-        <v>5.1805371889999998</v>
+        <f>5.180537189*1000</f>
+        <v>5180.5371889999997</v>
       </c>
       <c r="I3">
         <v>500</v>
@@ -967,13 +1015,13 @@
         <v>100</v>
       </c>
       <c r="M3">
-        <v>4.8092428113432399</v>
+        <v>4809.2428113432397</v>
       </c>
       <c r="N3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -981,7 +1029,8 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>29.9068</v>
+        <f>29.9068*1000</f>
+        <v>29906.799999999999</v>
       </c>
       <c r="D4">
         <v>500</v>
@@ -993,7 +1042,8 @@
         <v>40</v>
       </c>
       <c r="H4">
-        <v>4.9532825989999996</v>
+        <f>4.953282599*1000</f>
+        <v>4953.2825989999992</v>
       </c>
       <c r="I4">
         <v>500</v>
@@ -1005,13 +1055,13 @@
         <v>100</v>
       </c>
       <c r="M4">
-        <v>4.9034444247201003</v>
+        <v>4903.4444247201</v>
       </c>
       <c r="N4">
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1019,7 +1069,8 @@
         <v>60</v>
       </c>
       <c r="C5">
-        <v>32.18</v>
+        <f>32.18*1000</f>
+        <v>32180</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -1031,7 +1082,8 @@
         <v>40</v>
       </c>
       <c r="H5">
-        <v>4.8601543400000002</v>
+        <f>4.86015434*1000</f>
+        <v>4860.15434</v>
       </c>
       <c r="I5">
         <v>500</v>
@@ -1043,13 +1095,13 @@
         <v>100</v>
       </c>
       <c r="M5">
-        <v>4.8257133491886099</v>
+        <v>4825.7133491886098</v>
       </c>
       <c r="N5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1057,7 +1109,8 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>31.983499999999999</v>
+        <f>31.9835*1000</f>
+        <v>31983.5</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -1069,7 +1122,8 @@
         <v>40</v>
       </c>
       <c r="H6">
-        <v>4.8779885790000002</v>
+        <f>4.877988579*1000</f>
+        <v>4877.9885789999998</v>
       </c>
       <c r="I6">
         <v>500</v>
@@ -1081,13 +1135,13 @@
         <v>100</v>
       </c>
       <c r="M6">
-        <v>5.0171992429483998</v>
+        <v>5017.1992429483998</v>
       </c>
       <c r="N6">
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1095,7 +1149,8 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>28.3993</v>
+        <f>28.3993*1000</f>
+        <v>28399.3</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -1107,7 +1162,8 @@
         <v>40</v>
       </c>
       <c r="H7">
-        <v>5.172529054</v>
+        <f>5.172529054*1000</f>
+        <v>5172.5290539999996</v>
       </c>
       <c r="I7">
         <v>500</v>
@@ -1119,13 +1175,13 @@
         <v>100</v>
       </c>
       <c r="M7">
-        <v>4.9544691307028197</v>
+        <v>4954.4691307028197</v>
       </c>
       <c r="N7">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1133,7 +1189,8 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>29.0869</v>
+        <f>29.0869*1000</f>
+        <v>29086.9</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1145,7 +1202,8 @@
         <v>40</v>
       </c>
       <c r="H8">
-        <v>4.9906289370000003</v>
+        <f>4.990628937*1000</f>
+        <v>4990.6289370000004</v>
       </c>
       <c r="I8">
         <v>500</v>
@@ -1157,13 +1215,13 @@
         <v>100</v>
       </c>
       <c r="M8">
-        <v>4.9200281397928602</v>
+        <v>4920.0281397928602</v>
       </c>
       <c r="N8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1171,7 +1229,8 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>31.554600000000001</v>
+        <f>31.5546*1000</f>
+        <v>31554.600000000002</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1183,7 +1242,8 @@
         <v>40</v>
       </c>
       <c r="H9">
-        <v>5.0152112950000003</v>
+        <f>5.015211295*1000</f>
+        <v>5015.2112950000001</v>
       </c>
       <c r="I9">
         <v>500</v>
@@ -1195,13 +1255,13 @@
         <v>100</v>
       </c>
       <c r="M9">
-        <v>4.8630358148906696</v>
+        <v>4863.0358148906698</v>
       </c>
       <c r="N9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1209,7 +1269,8 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>32.389499999999998</v>
+        <f>32.3895*1000</f>
+        <v>32389.5</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -1221,7 +1282,8 @@
         <v>40</v>
       </c>
       <c r="H10">
-        <v>4.9620551380000002</v>
+        <f>4.962055138*1000</f>
+        <v>4962.0551380000006</v>
       </c>
       <c r="I10">
         <v>500</v>
@@ -1233,13 +1295,13 @@
         <v>100</v>
       </c>
       <c r="M10">
-        <v>4.7926472647545904</v>
+        <v>4792.6472647545907</v>
       </c>
       <c r="N10">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1247,7 +1309,8 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>30.432300000000001</v>
+        <f>30.4323*1000</f>
+        <v>30432.300000000003</v>
       </c>
       <c r="D11">
         <v>500</v>
@@ -1259,7 +1322,8 @@
         <v>40</v>
       </c>
       <c r="H11">
-        <v>5.0780633699999997</v>
+        <f>5.07806337*1000</f>
+        <v>5078.0633699999998</v>
       </c>
       <c r="I11">
         <v>500</v>
@@ -1271,13 +1335,13 @@
         <v>100</v>
       </c>
       <c r="M11">
-        <v>5.1666404309370604</v>
+        <v>5166.64043093706</v>
       </c>
       <c r="N11">
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1285,7 +1349,8 @@
         <v>60</v>
       </c>
       <c r="C12">
-        <v>31.542000000000002</v>
+        <f>31.542*1000</f>
+        <v>31542</v>
       </c>
       <c r="D12">
         <v>500</v>
@@ -1297,7 +1362,8 @@
         <v>40</v>
       </c>
       <c r="H12">
-        <v>5.2599645050000001</v>
+        <f>5.259964505*1000</f>
+        <v>5259.9645049999999</v>
       </c>
       <c r="I12">
         <v>500</v>
@@ -1309,13 +1375,13 @@
         <v>100</v>
       </c>
       <c r="M12">
-        <v>4.90022168124539</v>
+        <v>4900.2216812453898</v>
       </c>
       <c r="N12">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1391,7 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C3:C12)</f>
-        <v>30.835820000000002</v>
+        <v>30835.82</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D3:D12)</f>
@@ -1340,7 +1406,7 @@
       </c>
       <c r="H13">
         <f>AVERAGE(H3:H12)</f>
-        <v>5.0350415006000002</v>
+        <v>5035.0415005999994</v>
       </c>
       <c r="I13">
         <f>AVERAGE(I3:I12)</f>
@@ -1355,22 +1421,25 @@
       </c>
       <c r="M13">
         <f>AVERAGE(M3:M12)</f>
-        <v>4.915264229052374</v>
+        <v>4915.2642290523745</v>
       </c>
       <c r="N13">
         <f>AVERAGE(N3:N12)</f>
         <v>487.6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1389,8 +1458,17 @@
       <c r="I16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1398,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>13.298835371888</v>
+        <v>13298.835371888001</v>
       </c>
       <c r="D17">
         <v>500</v>
@@ -1410,13 +1488,25 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>10.515502048003199</v>
+        <v>10515.5020480032</v>
       </c>
       <c r="I17">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>5462.4407530602602</v>
+      </c>
+      <c r="N17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1424,7 +1514,7 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>14.318095180892</v>
+        <v>14318.095180892</v>
       </c>
       <c r="D18">
         <v>500</v>
@@ -1436,13 +1526,25 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>10.659990648404101</v>
+        <v>10659.9906484041</v>
       </c>
       <c r="I18">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>5169.3451108230802</v>
+      </c>
+      <c r="N18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1450,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="C19">
-        <v>14.3066485019487</v>
+        <v>14306.648501948701</v>
       </c>
       <c r="D19">
         <v>500</v>
@@ -1462,13 +1564,25 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>10.5498902639976</v>
+        <v>10549.8902639976</v>
       </c>
       <c r="I19">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>5133.5642648919002</v>
+      </c>
+      <c r="N19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1476,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>12.937036108161999</v>
+        <v>12937.036108161999</v>
       </c>
       <c r="D20">
         <v>500</v>
@@ -1488,13 +1602,25 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>10.224407096974099</v>
+        <v>10224.407096974099</v>
       </c>
       <c r="I20">
         <v>500</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>5392.39995873712</v>
+      </c>
+      <c r="N20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1502,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>14.1797100191153</v>
+        <v>14179.7100191153</v>
       </c>
       <c r="D21">
         <v>500</v>
@@ -1514,13 +1640,25 @@
         <v>100</v>
       </c>
       <c r="H21">
-        <v>10.353825816074901</v>
+        <v>10353.825816074901</v>
       </c>
       <c r="I21">
         <v>500</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>5259.2001925556106</v>
+      </c>
+      <c r="N21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1528,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>13.9143651029602</v>
+        <v>13914.365102960201</v>
       </c>
       <c r="D22">
         <v>500</v>
@@ -1540,13 +1678,25 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>11.2513277260982</v>
+        <v>11251.327726098199</v>
       </c>
       <c r="I22">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>5328.9906081687404</v>
+      </c>
+      <c r="N22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1554,7 +1704,7 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>14.156823370069599</v>
+        <v>14156.823370069598</v>
       </c>
       <c r="D23">
         <v>500</v>
@@ -1566,13 +1716,25 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>9.7346232923449296</v>
+        <v>9734.6232923449297</v>
       </c>
       <c r="I23">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>4915.4210163215894</v>
+      </c>
+      <c r="N23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1580,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>13.683513324616699</v>
+        <v>13683.513324616701</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -1592,13 +1754,25 @@
         <v>100</v>
       </c>
       <c r="H24">
-        <v>10.860988227455399</v>
+        <v>10860.988227455398</v>
       </c>
       <c r="I24">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <v>5270.4661335412002</v>
+      </c>
+      <c r="N24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1606,7 +1780,7 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>13.4185066408676</v>
+        <v>13418.506640867599</v>
       </c>
       <c r="D25">
         <v>500</v>
@@ -1618,13 +1792,25 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>10.850586174135501</v>
+        <v>10850.5861741355</v>
       </c>
       <c r="I25">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>5073.90719344852</v>
+      </c>
+      <c r="N25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1632,7 +1818,7 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>13.592595314027699</v>
+        <v>13592.5953140277</v>
       </c>
       <c r="D26">
         <v>500</v>
@@ -1644,13 +1830,25 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>10.669035876487801</v>
+        <v>10669.0358764878</v>
       </c>
       <c r="I26">
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>5073.90719344852</v>
+      </c>
+      <c r="N26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1858,7 @@
       </c>
       <c r="C27">
         <f>AVERAGE(C17:C26)</f>
-        <v>13.780612893454782</v>
+        <v>13780.61289345478</v>
       </c>
       <c r="D27">
         <f>AVERAGE(D17:D26)</f>
@@ -1675,14 +1873,1645 @@
       </c>
       <c r="H27">
         <f>AVERAGE(H17:H26)</f>
-        <v>10.567017716997572</v>
+        <v>10567.017716997574</v>
       </c>
       <c r="I27">
         <f>AVERAGE(I17:I26)</f>
         <v>500</v>
       </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE(L17:L26)</f>
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE(M17:M26)</f>
+        <v>5207.9642424996537</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGE(N17:N26)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>16497.4711220258</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E40" si="0">PRODUCT(C31, 1000)</f>
+        <v>16497471.122025799</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>5035.0951885120303</v>
+      </c>
+      <c r="I31">
+        <v>500</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>12419.147683254099</v>
+      </c>
+      <c r="N31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>15937.091432860499</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>15937091.432860499</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>4896.1018993246807</v>
+      </c>
+      <c r="I32">
+        <v>500</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>12295.2442684868</v>
+      </c>
+      <c r="N32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>17407.262587929501</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>17407262.587929502</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>4968.5079441683902</v>
+      </c>
+      <c r="I33">
+        <v>500</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>12064.2457832402</v>
+      </c>
+      <c r="N33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>16748.533466503399</v>
+      </c>
+      <c r="D34">
+        <v>500</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>16748533.466503398</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>5337.5541557676197</v>
+      </c>
+      <c r="I34">
+        <v>500</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34">
+        <v>12072.8317004211</v>
+      </c>
+      <c r="N34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>17906.187149851998</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>17906187.149851996</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>4809.2428113432397</v>
+      </c>
+      <c r="I35">
+        <v>500</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <v>12284.2006331881</v>
+      </c>
+      <c r="N35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>15836.342238469699</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>15836342.238469699</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>5051.7220727844197</v>
+      </c>
+      <c r="I36">
+        <v>500</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>100</v>
+      </c>
+      <c r="M36">
+        <v>12362.942494778699</v>
+      </c>
+      <c r="N36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>17873.963361685001</v>
+      </c>
+      <c r="D37">
+        <v>500</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>17873963.361685</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>4920.0281397928602</v>
+      </c>
+      <c r="I37">
+        <v>500</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <v>12117.826385943501</v>
+      </c>
+      <c r="N37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>16007.3893630735</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>16007389.3630735</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>5016.73124020864</v>
+      </c>
+      <c r="I38">
+        <v>500</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <v>12482.214049804799</v>
+      </c>
+      <c r="N38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>16807.6595931878</v>
+      </c>
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>16807659.593187802</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>4998.8641705522896</v>
+      </c>
+      <c r="I39">
+        <v>500</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+      <c r="M39">
+        <v>12192.9747002479</v>
+      </c>
+      <c r="N39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>16035.222190321399</v>
+      </c>
+      <c r="D40">
+        <v>500</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>16035222.190321399</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>4915.1744450088299</v>
+      </c>
+      <c r="I40">
+        <v>500</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <v>11713.6712305695</v>
+      </c>
+      <c r="N40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f>AVERAGE(B31:B40)</f>
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <f>AVERAGE(C31:C40)</f>
+        <v>16705.712250590859</v>
+      </c>
+      <c r="D41">
+        <f>AVERAGE(D31:D40)</f>
+        <v>500</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <f>AVERAGE(G31:G40)</f>
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(H31:H40)</f>
+        <v>4994.9022067463002</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(I31:I40)</f>
+        <v>500</v>
+      </c>
+      <c r="K41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <f>AVERAGE(L31:L40)</f>
+        <v>100</v>
+      </c>
+      <c r="M41">
+        <f>AVERAGE(M31:M40)</f>
+        <v>12200.529892993469</v>
+      </c>
+      <c r="N41">
+        <f>AVERAGE(N31:N40)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>5323.8103425301706</v>
+      </c>
+      <c r="D45">
+        <v>413</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>11154.5671898077</v>
+      </c>
+      <c r="I45">
+        <v>500</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45">
+        <v>4900.2216812453898</v>
+      </c>
+      <c r="N45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>4809.2428113432397</v>
+      </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>10434.090456513999</v>
+      </c>
+      <c r="I46">
+        <v>500</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>5053.6322342639896</v>
+      </c>
+      <c r="N46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>4894.5841252427599</v>
+      </c>
+      <c r="D47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>11276.946497356899</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>5291.1814041400103</v>
+      </c>
+      <c r="N47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>4829.8331311093198</v>
+      </c>
+      <c r="D48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>10977.9630484105</v>
+      </c>
+      <c r="I48">
+        <v>500</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="M48">
+        <v>4896.4967646941705</v>
+      </c>
+      <c r="N48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>4924.1479217135702</v>
+      </c>
+      <c r="D49">
+        <v>500</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>10391.535438118399</v>
+      </c>
+      <c r="I49">
+        <v>500</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="M49">
+        <v>4894.5841252427599</v>
+      </c>
+      <c r="N49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>4792.6472647545907</v>
+      </c>
+      <c r="D50">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>11097.601404429699</v>
+      </c>
+      <c r="I50">
+        <v>500</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <v>4860.1543400985702</v>
+      </c>
+      <c r="N50">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>5069.9878564422597</v>
+      </c>
+      <c r="D51">
+        <v>500</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>11196.397284905301</v>
+      </c>
+      <c r="I51">
+        <v>500</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="M51">
+        <v>4809.2428113432397</v>
+      </c>
+      <c r="N51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>4896.1018993246807</v>
+      </c>
+      <c r="D52">
+        <v>500</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>11046.510848502299</v>
+      </c>
+      <c r="I52">
+        <v>500</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="M52">
+        <v>4913.0923112828095</v>
+      </c>
+      <c r="N52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>4792.6472647545907</v>
+      </c>
+      <c r="D53">
+        <v>435</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>11501.124516030799</v>
+      </c>
+      <c r="I53">
+        <v>500</v>
+      </c>
+      <c r="K53">
+        <v>9</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+      <c r="M53">
+        <v>4952.4259124750597</v>
+      </c>
+      <c r="N53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>4913.0923112828095</v>
+      </c>
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>10304.4800160267</v>
+      </c>
+      <c r="I54">
+        <v>500</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="M54">
+        <v>4829.8331311093198</v>
+      </c>
+      <c r="N54">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <f>AVERAGE(B45:B54)</f>
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <f>AVERAGE(C45:C54)</f>
+        <v>4924.6094928497996</v>
+      </c>
+      <c r="D55">
+        <f>AVERAGE(D45:D54)</f>
+        <v>484.8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <f>AVERAGE(G45:G54)</f>
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <f>AVERAGE(H45:H54)</f>
+        <v>10938.121670010229</v>
+      </c>
+      <c r="I55">
+        <f>AVERAGE(I45:I54)</f>
+        <v>500</v>
+      </c>
+      <c r="K55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <f>AVERAGE(L45:L54)</f>
+        <v>100</v>
+      </c>
+      <c r="M55">
+        <f>AVERAGE(M45:M54)</f>
+        <v>4940.0864715895314</v>
+      </c>
+      <c r="N55">
+        <f>AVERAGE(N45:N54)</f>
+        <v>484.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>10880.166057730201</v>
+      </c>
+      <c r="D59">
+        <v>500</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>4970.4074961137803</v>
+      </c>
+      <c r="I59">
+        <v>750</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="M59">
+        <v>8880.1166457262316</v>
+      </c>
+      <c r="N59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>10275.133297008801</v>
+      </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>4933.2216297590594</v>
+      </c>
+      <c r="I60">
+        <v>509</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
+      </c>
+      <c r="M60">
+        <v>8435.4843732978698</v>
+      </c>
+      <c r="N60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>11604.1862104799</v>
+      </c>
+      <c r="D61">
+        <v>500</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>4863.0358148906698</v>
+      </c>
+      <c r="I61">
+        <v>532</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>100</v>
+      </c>
+      <c r="M61">
+        <v>8952.2825512064701</v>
+      </c>
+      <c r="N61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62">
+        <v>10499.2695055269</v>
+      </c>
+      <c r="D62">
+        <v>500</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>4979.5444707330798</v>
+      </c>
+      <c r="I62">
+        <v>448</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>100</v>
+      </c>
+      <c r="M62">
+        <v>9107.3474581500086</v>
+      </c>
+      <c r="N62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>10430.554996254299</v>
+      </c>
+      <c r="D63">
+        <v>500</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>5059.7176761211804</v>
+      </c>
+      <c r="I63">
+        <v>519</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>100</v>
+      </c>
+      <c r="M63">
+        <v>9421.8680859037195</v>
+      </c>
+      <c r="N63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>10536.4975608232</v>
+      </c>
+      <c r="D64">
+        <v>500</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>4843.5587935099202</v>
+      </c>
+      <c r="I64">
+        <v>484</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64">
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <v>9174.9869030484897</v>
+      </c>
+      <c r="N64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>10719.1793970086</v>
+      </c>
+      <c r="D65">
+        <v>500</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>4809.2428113432397</v>
+      </c>
+      <c r="I65">
+        <v>473</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="M65">
+        <v>8689.6658145814999</v>
+      </c>
+      <c r="N65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>10438.7785032912</v>
+      </c>
+      <c r="D66">
+        <v>500</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>4829.8331311093098</v>
+      </c>
+      <c r="I66">
+        <v>715</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="M66">
+        <v>8871.0580494402293</v>
+      </c>
+      <c r="N66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>11242.809607074199</v>
+      </c>
+      <c r="D67">
+        <v>500</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <f>4.93322162975906*1000</f>
+        <v>4933.2216297590594</v>
+      </c>
+      <c r="I67">
+        <v>575</v>
+      </c>
+      <c r="K67">
+        <v>9</v>
+      </c>
+      <c r="L67">
+        <v>100</v>
+      </c>
+      <c r="M67">
+        <v>8531.9551487961198</v>
+      </c>
+      <c r="N67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68">
+        <v>10590.219535412301</v>
+      </c>
+      <c r="D68">
+        <v>500</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>4913.9473436460003</v>
+      </c>
+      <c r="I68">
+        <v>630</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+      <c r="L68">
+        <v>100</v>
+      </c>
+      <c r="M68">
+        <v>9199.3586407087314</v>
+      </c>
+      <c r="N68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <f>AVERAGE(B59:B68)</f>
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <f>AVERAGE(C59:C68)</f>
+        <v>10721.67946706096</v>
+      </c>
+      <c r="D69">
+        <f>AVERAGE(D59:D68)</f>
+        <v>500</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <f>AVERAGE(G59:G68)</f>
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <f>AVERAGE(H59:H68)</f>
+        <v>4913.5730796985299</v>
+      </c>
+      <c r="I69">
+        <f>AVERAGE(I59:I68)</f>
+        <v>563.5</v>
+      </c>
+      <c r="K69" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69">
+        <f>AVERAGE(L59:L68)</f>
+        <v>100</v>
+      </c>
+      <c r="M69">
+        <f>AVERAGE(M59:M68)</f>
+        <v>8926.4123670859371</v>
+      </c>
+      <c r="N69">
+        <f>AVERAGE(N59:N68)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>19563.8061251285</v>
+      </c>
+      <c r="D74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>19076.586511685102</v>
+      </c>
+      <c r="D75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>19549.3708872303</v>
+      </c>
+      <c r="D76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>18703.848774931001</v>
+      </c>
+      <c r="D77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>18907.069901250998</v>
+      </c>
+      <c r="D78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>18721.486194351401</v>
+      </c>
+      <c r="D79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>19628.9364530024</v>
+      </c>
+      <c r="D80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>19097.0968484738</v>
+      </c>
+      <c r="D81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82">
+        <v>19046.526908268301</v>
+      </c>
+      <c r="D82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>20307.3452072892</v>
+      </c>
+      <c r="D83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <f>AVERAGE(B74:B83)</f>
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <f>AVERAGE(C74:C83)</f>
+        <v>19260.207381161101</v>
+      </c>
+      <c r="D84">
+        <f>AVERAGE(D74:D83)</f>
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>